--- a/monitoring-iku-31-pembilang.xlsx
+++ b/monitoring-iku-31-pembilang.xlsx
@@ -509,7 +509,7 @@
     <t>Ir. Ira Kusuma Dewi S.Si., M.T.</t>
   </si>
   <si>
-    <t>Juventa S.T., M.T.</t>
+    <t>Ir. Juventa S.T., M.T.</t>
   </si>
   <si>
     <t>Ir. Freddy Ilfan S.T., M.T.</t>
@@ -719,7 +719,7 @@
     <t>Sosialisasi Dan Pendampingan Penggunaan Aplikasi-Aplikasi Pendukung Kegiatan Akademik Universitas Jambi Kepada Sivitas Akademika</t>
   </si>
   <si>
-    <t>Rizki Andre Handika ST, MT, Ph.D(Eng.)</t>
+    <t>Ir. Rizki Andre Handika ST, MT, Ph.D(Eng.)</t>
   </si>
   <si>
     <t>Pengembangan Model Pembelajaran Project Based Learning (PjBL) dalam Pelaksanaan Kuliah Pencemaran Udara (TEL-354) TA 2023/2024</t>
